--- a/考勤小程序/交付版本v2/2-考勤结果/考勤表.xlsx
+++ b/考勤小程序/交付版本v2/2-考勤结果/考勤表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13420" tabRatio="400" activeTab="1"/>
+    <workbookView windowWidth="24860" windowHeight="11420" tabRatio="400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="语文" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>班级</t>
   </si>
@@ -59,6 +59,12 @@
     <t>高二二班</t>
   </si>
   <si>
+    <t>学科标志位</t>
+  </si>
+  <si>
+    <t>班级标志位</t>
+  </si>
+  <si>
     <t>20220515-L4</t>
   </si>
   <si>
@@ -70,9 +76,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -92,6 +98,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -99,22 +112,32 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,16 +151,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -153,15 +175,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,16 +203,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,35 +219,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -262,25 +268,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,151 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,11 +458,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,6 +469,41 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -500,30 +539,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -538,162 +553,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1402,20 +1408,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.46428571428571" customWidth="1"/>
     <col min="2" max="2" width="13.0178571428571" customWidth="1"/>
     <col min="3" max="5" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1423,468 +1429,654 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2">
         <v>101</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>102</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>103</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>104</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>105</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>106</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8">
         <v>107</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9">
         <v>108</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10">
         <v>109</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>110</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12">
         <v>201</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>202</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14">
         <v>203</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15">
         <v>204</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16">
         <v>205</v>
       </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17">
         <v>206</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18">
         <v>207</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2"/>
       <c r="B19">
         <v>208</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2"/>
       <c r="B20">
         <v>209</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21">
         <v>210</v>
       </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>301</v>
       </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2"/>
       <c r="B23">
         <v>302</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24">
         <v>303</v>
       </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:7">
       <c r="A25" s="2"/>
       <c r="B25">
         <v>304</v>
       </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26">
         <v>305</v>
       </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27">
         <v>306</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28">
         <v>307</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="2"/>
       <c r="B29">
         <v>308</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2"/>
       <c r="B30">
         <v>309</v>
       </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="2"/>
       <c r="B31">
         <v>310</v>
       </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>10</v>
       </c>
     </row>
